--- a/xlsx/彼得·圣吉_intext.xlsx
+++ b/xlsx/彼得·圣吉_intext.xlsx
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%B9%A0%E5%9E%8B%E7%BB%84%E7%BB%87</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%88%A9%E8%8F%AF</t>
   </si>
   <si>
-    <t>聯合利華</t>
+    <t>联合利华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國石油公司</t>
+    <t>英国石油公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>英特爾</t>
+    <t>英特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E6%96%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>樂施會</t>
+    <t>乐施会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國人</t>
+    <t>美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E4%BA%BA%E7%89%A9%E5%B0%8F%E4%BD%9C%E5%93%81</t>
   </si>
   <si>
-    <t>Template talk-美國人物小作品</t>
+    <t>Template talk-美国人物小作品</t>
   </si>
 </sst>
 </file>
